--- a/results1.xlsx
+++ b/results1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Petter/Projects/TIP160/Facies-prediction-TIP160/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E5FE03-89F8-DD49-8AB3-EDA5E85782FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71778EDC-7B60-6F40-B625-1768331B43A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>F-1 score</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Resultatoversikt forenklet XGBoost (nærliggende bergarter)</t>
+  </si>
+  <si>
+    <t>Resultatoversikt CatBoost-modell</t>
+  </si>
+  <si>
+    <t>Resultatoversikt CatBoost-modell (nærliggende bergarter)</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -519,12 +525,6 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,6 +595,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,11 +906,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
@@ -919,7 +925,7 @@
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -928,22 +934,22 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -959,11 +965,11 @@
         <v>100</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -979,11 +985,11 @@
         <v>0.93455421686746987</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -999,11 +1005,11 @@
         <v>4.5076306261786596E-3</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -1019,11 +1025,11 @@
         <v>0.91566265060240959</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
         <v>5</v>
@@ -1039,11 +1045,11 @@
         <v>0.93253012048192774</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
         <v>6</v>
@@ -1059,11 +1065,11 @@
         <v>0.93493975903614457</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
         <v>7</v>
@@ -1079,11 +1085,11 @@
         <v>0.9373493975903614</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="9" t="s">
         <v>8</v>
@@ -1099,11 +1105,11 @@
         <v>0.9481927710843373</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1112,16 +1118,37 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="43"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>0</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1130,248 +1157,360 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.71339799999999998</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.93455421686746987</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22" t="s">
+      <c r="J14" s="19"/>
+      <c r="K14" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="21" t="s">
         <v>32</v>
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3.8110000000000002E-3</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6">
+        <v>4.5076306261786596E-3</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="35">
-        <v>0</v>
-      </c>
-      <c r="L15" s="36">
-        <v>0</v>
-      </c>
-      <c r="M15" s="35">
-        <v>0</v>
-      </c>
-      <c r="N15" s="37">
+      <c r="K15" s="33">
+        <v>0</v>
+      </c>
+      <c r="L15" s="34">
+        <v>0</v>
+      </c>
+      <c r="M15" s="33">
+        <v>0</v>
+      </c>
+      <c r="N15" s="35">
         <v>10</v>
       </c>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.70481899999999997</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.91566265060240959</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="40">
         <v>0.83333333333333304</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="40">
         <v>0.91891891891891897</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="40">
         <v>0.87403598971722296</v>
       </c>
-      <c r="N16" s="43">
+      <c r="N16" s="41">
         <v>185</v>
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="9:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.710843</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.93253012048192774</v>
+      </c>
+      <c r="G17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="33">
         <v>0.77777777777777701</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="33">
         <v>0.59036144578313199</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="33">
         <v>0.67123287671232801</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="35">
         <v>83</v>
       </c>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="9:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.71325300000000003</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.93493975903614457</v>
+      </c>
+      <c r="G18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="38">
         <v>0.61111111111111105</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="38">
         <v>0.66</v>
       </c>
-      <c r="M18" s="40">
+      <c r="M18" s="38">
         <v>0.63461538461538403</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="39">
         <v>50</v>
       </c>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="9:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.71566300000000005</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.9373493975903614</v>
+      </c>
+      <c r="G19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="35">
-        <v>0</v>
-      </c>
-      <c r="L19" s="35">
-        <v>0</v>
-      </c>
-      <c r="M19" s="35">
-        <v>0</v>
-      </c>
-      <c r="N19" s="37">
+      <c r="K19" s="33">
+        <v>0</v>
+      </c>
+      <c r="L19" s="33">
+        <v>0</v>
+      </c>
+      <c r="M19" s="33">
+        <v>0</v>
+      </c>
+      <c r="N19" s="35">
         <v>1</v>
       </c>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="9:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.72530099999999997</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.9481927710843373</v>
+      </c>
+      <c r="G20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="38">
         <v>0.68393782383419599</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="38">
         <v>0.65024630541871897</v>
       </c>
-      <c r="M20" s="40">
+      <c r="M20" s="38">
         <v>0.66666666666666596</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="39">
         <v>203</v>
       </c>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="9:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="33">
         <v>0.34666666666666601</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="33">
         <v>0.96296296296296202</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21" s="33">
         <v>0.50980392156862697</v>
       </c>
-      <c r="N21" s="37">
+      <c r="N21" s="35">
         <v>27</v>
       </c>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="9:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I22" s="1"/>
-      <c r="J22" s="39" t="s">
+      <c r="J22" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="38">
         <v>0.83478260869565202</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="38">
         <v>0.70848708487084799</v>
       </c>
-      <c r="M22" s="40">
+      <c r="M22" s="38">
         <v>0.76646706586826296</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="39">
         <v>271</v>
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="9:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I23" s="1"/>
-      <c r="J23" s="38" t="s">
+      <c r="J23" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="35">
-        <v>0</v>
-      </c>
-      <c r="L23" s="35">
-        <v>0</v>
-      </c>
-      <c r="M23" s="35">
-        <v>0</v>
-      </c>
-      <c r="N23" s="37">
+      <c r="K23" s="33">
+        <v>0</v>
+      </c>
+      <c r="L23" s="33">
+        <v>0</v>
+      </c>
+      <c r="M23" s="33">
+        <v>0</v>
+      </c>
+      <c r="N23" s="35">
         <v>0</v>
       </c>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="9:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I24" s="1"/>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="33">
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="31">
         <v>0.72530120481927696</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N24" s="24">
         <v>830</v>
       </c>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="9:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I25" s="1"/>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="26">
         <v>0.45417881349097</v>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="26">
         <v>0.49899741310606399</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M25" s="26">
         <v>0.458091322794277</v>
       </c>
-      <c r="N25" s="29">
+      <c r="N25" s="27">
         <v>830</v>
       </c>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="9:15" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I26" s="1"/>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="29">
         <v>0.75144969032848297</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="29">
         <v>0.72530120481927696</v>
       </c>
-      <c r="M26" s="31">
+      <c r="M26" s="29">
         <v>0.73006068694164294</v>
       </c>
-      <c r="N26" s="32">
+      <c r="N26" s="30">
         <v>830</v>
       </c>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="9:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1380,254 +1519,254 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="9:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I28" s="1"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="22" t="s">
+      <c r="J28" s="19"/>
+      <c r="K28" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="22" t="s">
+      <c r="L28" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="N28" s="21" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="9:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I29" s="1"/>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="33">
         <v>0.6</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="34">
         <v>0.6</v>
       </c>
-      <c r="M29" s="35">
+      <c r="M29" s="33">
         <v>0.6</v>
       </c>
-      <c r="N29" s="37">
+      <c r="N29" s="35">
         <v>10</v>
       </c>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="9:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I30" s="1"/>
-      <c r="J30" s="39" t="s">
+      <c r="J30" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="40">
         <v>0.82775119617224802</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="40">
         <v>0.93513513513513502</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="40">
         <v>0.87817258883248706</v>
       </c>
-      <c r="N30" s="43">
+      <c r="N30" s="41">
         <v>185</v>
       </c>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="9:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I31" s="1"/>
-      <c r="J31" s="38" t="s">
+      <c r="J31" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="33">
         <v>0.82758620689655105</v>
       </c>
-      <c r="L31" s="35">
+      <c r="L31" s="33">
         <v>0.57831325301204795</v>
       </c>
-      <c r="M31" s="35">
+      <c r="M31" s="33">
         <v>0.680851063829787</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="35">
         <v>83</v>
       </c>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="9:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I32" s="1"/>
-      <c r="J32" s="39" t="s">
+      <c r="J32" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32" s="38">
         <v>0.37777777777777699</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="38">
         <v>0.34</v>
       </c>
-      <c r="M32" s="40">
+      <c r="M32" s="38">
         <v>0.35789473684210499</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="39">
         <v>50</v>
       </c>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="9:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I33" s="1"/>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="35">
-        <v>0</v>
-      </c>
-      <c r="L33" s="35">
-        <v>0</v>
-      </c>
-      <c r="M33" s="35">
-        <v>0</v>
-      </c>
-      <c r="N33" s="37">
+      <c r="K33" s="33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="35">
         <v>1</v>
       </c>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="9:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I34" s="1"/>
-      <c r="J34" s="39" t="s">
+      <c r="J34" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="40">
+      <c r="K34" s="38">
         <v>0.605504587155963</v>
       </c>
-      <c r="L34" s="40">
+      <c r="L34" s="38">
         <v>0.65024630541871897</v>
       </c>
-      <c r="M34" s="40">
+      <c r="M34" s="38">
         <v>0.62707838479809896</v>
       </c>
-      <c r="N34" s="41">
+      <c r="N34" s="39">
         <v>203</v>
       </c>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="9:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I35" s="1"/>
-      <c r="J35" s="38" t="s">
+      <c r="J35" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="35">
+      <c r="K35" s="33">
         <v>0.58974358974358898</v>
       </c>
-      <c r="L35" s="35">
+      <c r="L35" s="33">
         <v>0.85185185185185097</v>
       </c>
-      <c r="M35" s="35">
+      <c r="M35" s="33">
         <v>0.69696969696969702</v>
       </c>
-      <c r="N35" s="37">
+      <c r="N35" s="35">
         <v>27</v>
       </c>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="9:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I36" s="1"/>
-      <c r="J36" s="39" t="s">
+      <c r="J36" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K36" s="40">
+      <c r="K36" s="38">
         <v>0.80079681274900305</v>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="38">
         <v>0.74169741697416902</v>
       </c>
-      <c r="M36" s="40">
+      <c r="M36" s="38">
         <v>0.77011494252873502</v>
       </c>
-      <c r="N36" s="41">
+      <c r="N36" s="39">
         <v>271</v>
       </c>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="9:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I37" s="1"/>
-      <c r="J37" s="38" t="s">
+      <c r="J37" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K37" s="35">
-        <v>0</v>
-      </c>
-      <c r="L37" s="35">
-        <v>0</v>
-      </c>
-      <c r="M37" s="35">
-        <v>0</v>
-      </c>
-      <c r="N37" s="37">
+      <c r="K37" s="33">
+        <v>0</v>
+      </c>
+      <c r="L37" s="33">
+        <v>0</v>
+      </c>
+      <c r="M37" s="33">
+        <v>0</v>
+      </c>
+      <c r="N37" s="35">
         <v>0</v>
       </c>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="9:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I38" s="1"/>
-      <c r="J38" s="24" t="s">
+      <c r="J38" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="25">
+      <c r="K38" s="23">
         <v>0.72289156626506001</v>
       </c>
-      <c r="L38" s="25">
+      <c r="L38" s="23">
         <v>0.72289156626506001</v>
       </c>
-      <c r="M38" s="33">
+      <c r="M38" s="31">
         <v>0.72289156626506001</v>
       </c>
-      <c r="N38" s="26">
+      <c r="N38" s="24">
         <v>0.72289156626506001</v>
       </c>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="9:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I39" s="1"/>
-      <c r="J39" s="27" t="s">
+      <c r="J39" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="28">
+      <c r="K39" s="26">
         <v>0.57864502131189099</v>
       </c>
-      <c r="L39" s="28">
+      <c r="L39" s="26">
         <v>0.58715549529899003</v>
       </c>
-      <c r="M39" s="28">
+      <c r="M39" s="26">
         <v>0.57638517672511402</v>
       </c>
-      <c r="N39" s="29">
+      <c r="N39" s="27">
         <v>830</v>
       </c>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="9:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:15" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I40" s="1"/>
-      <c r="J40" s="30" t="s">
+      <c r="J40" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="K40" s="31">
+      <c r="K40" s="29">
         <v>0.72598669846251296</v>
       </c>
-      <c r="L40" s="31">
+      <c r="L40" s="29">
         <v>0.72289156626506001</v>
       </c>
-      <c r="M40" s="31">
+      <c r="M40" s="29">
         <v>0.72010065955598901</v>
       </c>
-      <c r="N40" s="32">
+      <c r="N40" s="30">
         <v>830</v>
       </c>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="9:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I41" s="1"/>
-      <c r="J41" s="20"/>
+      <c r="J41" s="18"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -1635,9 +1774,11 @@
       <c r="O41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
